--- a/קריטריון.xlsx
+++ b/קריטריון.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lab102\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>סוללה</t>
   </si>
@@ -153,9 +153,6 @@
     <t>IPHONE / Type-C - 3</t>
   </si>
   <si>
-    <t>ככל שיותר חדישה - יותר טובה</t>
-  </si>
-  <si>
     <t>5 - 5.5 inch - 5</t>
   </si>
   <si>
@@ -313,6 +310,33 @@
   </si>
   <si>
     <t>חסינות למים</t>
+  </si>
+  <si>
+    <t>אנדרואיד - 5</t>
+  </si>
+  <si>
+    <t>בלקברי - 4</t>
+  </si>
+  <si>
+    <t>מייקרוספוט - 3</t>
+  </si>
+  <si>
+    <t>סיימביאן - 2</t>
+  </si>
+  <si>
+    <t>פיירפוקס - 1</t>
+  </si>
+  <si>
+    <t>אפל - 6</t>
+  </si>
+  <si>
+    <t>אנדרואיד - 6</t>
+  </si>
+  <si>
+    <t>אפל - 5</t>
+  </si>
+  <si>
+    <t>מייקרוסופט - 3</t>
   </si>
 </sst>
 </file>
@@ -679,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -714,33 +738,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -766,87 +874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:B47"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -1171,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>27</v>
@@ -1187,11 +1214,11 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -1200,148 +1227,148 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
-        <v>4</v>
-      </c>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="42">
+        <v>4</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="3" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1351,146 +1378,146 @@
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+      <c r="A15" s="42">
         <v>6</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="35">
         <v>7</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="5" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="5" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+      <c r="A21" s="42">
         <v>8</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="48"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="48"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -1499,436 +1526,506 @@
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="42">
         <v>10</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
+      <c r="C27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
-        <v>12</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>11</v>
-      </c>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>36</v>
+        <v>103</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>37</v>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>14</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="42">
+        <v>12</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>14</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C38" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>16</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C39" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>17</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C40" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>18</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C41" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="35">
         <v>19</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B42" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C42" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D42" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="46"/>
-    </row>
-    <row r="38" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="42" t="s">
+      <c r="E42" s="34"/>
+    </row>
+    <row r="43" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="44"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="25">
         <v>20</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B44" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C44" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D44" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="7" t="s">
+    <row r="45" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+    <row r="46" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
         <v>21</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B46" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="45" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="46"/>
-    </row>
-    <row r="43" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="42" t="s">
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="39" t="s">
         <v>40</v>
-      </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="14">
-        <v>22</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
-        <v>23</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>24</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>33</v>
       </c>
       <c r="D48" s="40"/>
       <c r="E48" s="41"/>
     </row>
-    <row r="49" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="25">
+        <v>22</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="26"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="30">
+        <v>23</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>24</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
         <v>25</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E54" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+    <row r="55" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <v>26</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+    <row r="56" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
         <v>27</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C56" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-    </row>
-    <row r="52" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <v>28</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C57" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="14">
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="25">
         <v>29</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="27" t="s">
+      <c r="B58" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29"/>
-    </row>
-    <row r="54" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="24" t="s">
+      <c r="D58" s="56"/>
+      <c r="E58" s="57"/>
+    </row>
+    <row r="59" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
+  <mergeCells count="57">
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="E21:E25"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C56:E56"/>
     <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1939,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1953,510 +2050,510 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="56">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55">
-        <v>5</v>
-      </c>
-      <c r="D2" s="55">
-        <v>5</v>
-      </c>
-      <c r="E2" s="55">
+      <c r="C2" s="14">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55">
-        <v>4</v>
-      </c>
-      <c r="D3" s="55">
-        <v>5</v>
-      </c>
-      <c r="E3" s="55">
+      <c r="C3" s="14">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="14">
         <v>3</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="14">
         <v>3</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
-        <v>4</v>
-      </c>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="14">
         <v>3</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="14">
         <v>3</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
-        <v>5</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="55">
-        <v>4</v>
-      </c>
-      <c r="D6" s="55">
-        <v>4</v>
-      </c>
-      <c r="E6" s="55">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="55">
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="55">
-        <v>4</v>
-      </c>
-      <c r="E7" s="55">
+      <c r="D7" s="14">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="56">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="14">
         <v>1</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="14">
         <v>3</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="56">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="55">
-        <v>5</v>
-      </c>
-      <c r="D9" s="55">
-        <v>4</v>
-      </c>
-      <c r="E9" s="55">
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="55">
-        <v>5</v>
-      </c>
-      <c r="D10" s="55">
-        <v>5</v>
-      </c>
-      <c r="E10" s="55">
+      <c r="C10" s="14">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="56">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="55">
-        <v>5</v>
-      </c>
-      <c r="D11" s="55">
-        <v>4</v>
-      </c>
-      <c r="E11" s="55">
+      <c r="C11" s="14">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4</v>
+      </c>
+      <c r="E11" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="56">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="55">
-        <v>4</v>
-      </c>
-      <c r="D12" s="55">
-        <v>4</v>
-      </c>
-      <c r="E12" s="55">
+      <c r="C12" s="14">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="56">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="14">
         <v>2</v>
       </c>
-      <c r="D13" s="55">
-        <v>5</v>
-      </c>
-      <c r="E13" s="55">
+      <c r="D13" s="14">
+        <v>5</v>
+      </c>
+      <c r="E13" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="56">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="55">
-        <v>4</v>
-      </c>
-      <c r="D14" s="55">
-        <v>5</v>
-      </c>
-      <c r="E14" s="55">
+      <c r="C14" s="14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="56">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="55">
-        <v>4</v>
-      </c>
-      <c r="D15" s="55">
-        <v>5</v>
-      </c>
-      <c r="E15" s="55">
+      <c r="C15" s="14">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14">
+        <v>5</v>
+      </c>
+      <c r="E15" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="56">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="55">
-        <v>4</v>
-      </c>
-      <c r="D16" s="55">
-        <v>5</v>
-      </c>
-      <c r="E16" s="55">
+      <c r="C16" s="14">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="56">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="55">
-        <v>4</v>
-      </c>
-      <c r="D17" s="55">
-        <v>5</v>
-      </c>
-      <c r="E17" s="55">
+      <c r="C17" s="14">
+        <v>4</v>
+      </c>
+      <c r="D17" s="14">
+        <v>5</v>
+      </c>
+      <c r="E17" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="56">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="55">
-        <v>4</v>
-      </c>
-      <c r="D18" s="55">
-        <v>5</v>
-      </c>
-      <c r="E18" s="55">
+      <c r="C18" s="14">
+        <v>4</v>
+      </c>
+      <c r="D18" s="14">
+        <v>5</v>
+      </c>
+      <c r="E18" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="56">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="55">
-        <v>4</v>
-      </c>
-      <c r="D19" s="55">
-        <v>5</v>
-      </c>
-      <c r="E19" s="55">
+      <c r="C19" s="14">
+        <v>4</v>
+      </c>
+      <c r="D19" s="14">
+        <v>5</v>
+      </c>
+      <c r="E19" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="56">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="14">
         <v>2</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="14">
         <v>2</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="56">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="14">
         <v>1</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="14">
         <v>1</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="56">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="14">
         <v>1</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="14">
         <v>3</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="56">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="14">
         <v>1</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="14">
         <v>3</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="56">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="14">
         <v>2</v>
       </c>
-      <c r="D24" s="55">
-        <v>4</v>
-      </c>
-      <c r="E24" s="55">
+      <c r="D24" s="14">
+        <v>4</v>
+      </c>
+      <c r="E24" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="56">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="55">
-        <v>5</v>
-      </c>
-      <c r="D25" s="55">
-        <v>5</v>
-      </c>
-      <c r="E25" s="55">
+      <c r="C25" s="14">
+        <v>5</v>
+      </c>
+      <c r="D25" s="14">
+        <v>5</v>
+      </c>
+      <c r="E25" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="56">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="14">
         <v>3</v>
       </c>
-      <c r="D26" s="55">
-        <v>4</v>
-      </c>
-      <c r="E26" s="55">
+      <c r="D26" s="14">
+        <v>4</v>
+      </c>
+      <c r="E26" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="56">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="55">
-        <v>5</v>
-      </c>
-      <c r="D27" s="55">
+      <c r="C27" s="14">
+        <v>5</v>
+      </c>
+      <c r="D27" s="14">
         <v>1</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="56">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="55">
-        <v>5</v>
-      </c>
-      <c r="D28" s="55">
+      <c r="C28" s="14">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="56">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="55">
-        <v>5</v>
-      </c>
-      <c r="D29" s="55">
-        <v>5</v>
-      </c>
-      <c r="E29" s="55">
+      <c r="C29" s="14">
+        <v>5</v>
+      </c>
+      <c r="D29" s="14">
+        <v>5</v>
+      </c>
+      <c r="E29" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="56">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="55">
-        <v>4</v>
-      </c>
-      <c r="D30" s="55">
-        <v>4</v>
-      </c>
-      <c r="E30" s="55">
+      <c r="B30" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="14">
+        <v>4</v>
+      </c>
+      <c r="D30" s="14">
+        <v>4</v>
+      </c>
+      <c r="E30" s="14">
         <v>3</v>
       </c>
     </row>

--- a/קריטריון.xlsx
+++ b/קריטריון.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>סוללה</t>
   </si>
@@ -337,6 +337,39 @@
   </si>
   <si>
     <t>מייקרוסופט - 3</t>
+  </si>
+  <si>
+    <t>1 full</t>
+  </si>
+  <si>
+    <t>2 mini</t>
+  </si>
+  <si>
+    <t>3 micro</t>
+  </si>
+  <si>
+    <t>4 nano</t>
+  </si>
+  <si>
+    <t>1 android</t>
+  </si>
+  <si>
+    <t>2 apple</t>
+  </si>
+  <si>
+    <t>3 microsoft</t>
+  </si>
+  <si>
+    <t>4 blackberry</t>
+  </si>
+  <si>
+    <t>5 firefox</t>
+  </si>
+  <si>
+    <t>6 symbian</t>
+  </si>
+  <si>
+    <t>1 type c/iphone</t>
   </si>
 </sst>
 </file>
@@ -389,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -699,11 +732,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,6 +916,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -1408,7 +1456,7 @@
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
         <v>7</v>
       </c>
@@ -1424,8 +1472,11 @@
       <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="48"/>
@@ -1435,8 +1486,11 @@
       <c r="E18" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="48"/>
@@ -1446,8 +1500,11 @@
       <c r="E19" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="43"/>
@@ -1457,8 +1514,11 @@
       <c r="E20" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="42">
         <v>8</v>
       </c>
@@ -1475,7 +1535,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="3" t="s">
@@ -1486,7 +1546,7 @@
       </c>
       <c r="E22" s="48"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
       <c r="C23" s="4" t="s">
@@ -1497,7 +1557,7 @@
       </c>
       <c r="E23" s="48"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" s="3" t="s">
@@ -1508,7 +1568,7 @@
       </c>
       <c r="E24" s="48"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="3" t="s">
@@ -1519,7 +1579,7 @@
       </c>
       <c r="E25" s="43"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>9</v>
       </c>
@@ -1532,7 +1592,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="42">
         <v>10</v>
       </c>
@@ -1548,8 +1608,11 @@
       <c r="E27" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27" s="58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
       <c r="C28" s="12" t="s">
@@ -1561,8 +1624,11 @@
       <c r="E28" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" s="58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="48"/>
       <c r="C29" s="12" t="s">
@@ -1574,8 +1640,11 @@
       <c r="E29" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29" s="58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="48"/>
       <c r="C30" s="12" t="s">
@@ -1587,8 +1656,11 @@
       <c r="E30" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30" s="59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="C31" s="12" t="s">
@@ -1600,8 +1672,11 @@
       <c r="E31" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31" s="59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="12" t="s">
@@ -1613,8 +1688,11 @@
       <c r="E32" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G32" s="59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>11</v>
       </c>
@@ -1627,7 +1705,7 @@
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="42">
         <v>12</v>
       </c>
@@ -1644,7 +1722,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
@@ -1655,7 +1733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>13</v>
       </c>
@@ -1668,7 +1746,7 @@
       <c r="D36" s="28"/>
       <c r="E36" s="29"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>14</v>
       </c>
@@ -1681,7 +1759,7 @@
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>15</v>
       </c>
@@ -1694,7 +1772,7 @@
       <c r="D38" s="28"/>
       <c r="E38" s="29"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>16</v>
       </c>
@@ -1707,7 +1785,7 @@
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>17</v>
       </c>
@@ -1720,7 +1798,7 @@
       <c r="D40" s="28"/>
       <c r="E40" s="29"/>
     </row>
-    <row r="41" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>18</v>
       </c>
@@ -1733,7 +1811,7 @@
       <c r="D41" s="28"/>
       <c r="E41" s="29"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="35">
         <v>19</v>
       </c>
@@ -1748,7 +1826,7 @@
       </c>
       <c r="E42" s="34"/>
     </row>
-    <row r="43" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="26"/>
@@ -1757,7 +1835,7 @@
       </c>
       <c r="E43" s="41"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="25">
         <v>20</v>
       </c>
@@ -1774,7 +1852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -1783,7 +1861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>21</v>
       </c>
@@ -1795,8 +1873,11 @@
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="32" t="s">
@@ -1804,8 +1885,11 @@
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="34"/>
-    </row>
-    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="39" t="s">
@@ -1813,6 +1897,9 @@
       </c>
       <c r="D48" s="40"/>
       <c r="E48" s="41"/>
+      <c r="G48" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="25">
@@ -2037,7 +2124,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/קריטריון.xlsx
+++ b/קריטריון.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="117">
   <si>
     <t>סוללה</t>
   </si>
@@ -312,6 +312,9 @@
     <t>חסינות למים</t>
   </si>
   <si>
+    <t>בלקברי - 3</t>
+  </si>
+  <si>
     <t>אנדרואיד - 5</t>
   </si>
   <si>
@@ -370,6 +373,9 @@
   </si>
   <si>
     <t>1 type c/iphone</t>
+  </si>
+  <si>
+    <t>מייקרוסופט - 4</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1479,7 @@
         <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1487,7 +1493,7 @@
         <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1501,7 +1507,7 @@
         <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,7 +1521,7 @@
         <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1600,96 +1606,96 @@
         <v>9</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="G27" s="58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
       <c r="C28" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G28" s="58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="48"/>
       <c r="C29" s="12" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="48"/>
       <c r="C30" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="C31" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G32" s="59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1874,7 +1880,7 @@
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1886,7 +1892,7 @@
       <c r="D47" s="33"/>
       <c r="E47" s="34"/>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1898,7 +1904,7 @@
       <c r="D48" s="40"/>
       <c r="E48" s="41"/>
       <c r="G48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
